--- a/biology/Zoologie/Dermophis_donaldtrumpi/Dermophis_donaldtrumpi.xlsx
+++ b/biology/Zoologie/Dermophis_donaldtrumpi/Dermophis_donaldtrumpi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dermophis donaldtrumpi est une espèce de gymnophiona, un petit amphibien aveugle, baptisé en référence à Donald Trump[1]. Découvert à l'origine au Panama, son nom a été confirmé et publié dans les revues scientifiques[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dermophis donaldtrumpi est une espèce de gymnophiona, un petit amphibien aveugle, baptisé en référence à Donald Trump. Découvert à l'origine au Panama, son nom a été confirmé et publié dans les revues scientifiques.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dermophis donaldtrumpi mesure environ 10 cm de long, est aveugle[1], brillant[2] et visqueux[3]. Il ressemble à un gros ver, glissant[4] et s'enfouit[2], vivant presque entièrement sous terre[4]. Il utilise deux tentacules situés près de sa bouche afin de trouver une proie. Il a aussi une couche supplémentaire de peau que ses petits peuvent manger, après l'avoir arrachée[4].
-Selon le Rainforest Trust, les amphibiens tels que Dermophis donaldtrumpi sont particulièrement sensibles aux effets du réchauffement climatique et sont donc en danger de disparition[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dermophis donaldtrumpi mesure environ 10 cm de long, est aveugle, brillant et visqueux. Il ressemble à un gros ver, glissant et s'enfouit, vivant presque entièrement sous terre. Il utilise deux tentacules situés près de sa bouche afin de trouver une proie. Il a aussi une couche supplémentaire de peau que ses petits peuvent manger, après l'avoir arrachée.
+Selon le Rainforest Trust, les amphibiens tels que Dermophis donaldtrumpi sont particulièrement sensibles aux effets du réchauffement climatique et sont donc en danger de disparition.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En décembre 2018, le Rainforest Trust finalise une vente aux enchères de droits d'appellation pour douze espèces de plantes et d'animaux sud-américains nouvellement découvertes[5], l'argent servant à la conservation des habitats de ces espèces[2]. 25 000 $ sont versés par EnviroBuild, une entreprise de matériaux de construction durables, pour le droit de nommer ce nouvel amphibien[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En décembre 2018, le Rainforest Trust finalise une vente aux enchères de droits d'appellation pour douze espèces de plantes et d'animaux sud-américains nouvellement découvertes, l'argent servant à la conservation des habitats de ces espèces. 25 000 $ sont versés par EnviroBuild, une entreprise de matériaux de construction durables, pour le droit de nommer ce nouvel amphibien.
 </t>
         </is>
       </c>
